--- a/baseline.xlsx
+++ b/baseline.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Neural Network</t>
   </si>
@@ -203,10 +203,12 @@
     <t>分类效果好，通常在其他视觉任务重效果良好</t>
   </si>
   <si>
-    <t>非对称卷积分解在分辨率12-20的特征图上效果好，且用1x7、7x1进行特征提取</t>
-  </si>
-  <si>
-    <t>在网络训练初期，辅助分类器的加入并没有加快网络收敛，在训练后期，才加快</t>
+    <t>非对称卷积分解在分辨率12-20的特征图上效果好，
+且用1x7、7x1进行特征提取</t>
+  </si>
+  <si>
+    <t>在网络训练初期，辅助分类器的加入并没有加快网络收敛，
+在训练后期，才加快</t>
   </si>
   <si>
     <t>网络的收敛（是否可针对的设定训练方式）</t>
@@ -278,6 +280,69 @@
   </si>
   <si>
     <t>图像识别任务中，不用resenet也能设计深度卷积神经网络（话术）</t>
+  </si>
+  <si>
+    <t>ResNext</t>
+  </si>
+  <si>
+    <t>提炼了VGG，Resenet
+inception系列的优秀思想</t>
+  </si>
+  <si>
+    <t xml:space="preserve">处理相同尺寸的特征图时，
+采用同样大小、数量的卷积核
+特征图分辨率长宽降低2倍时，
+特征图通道数翻倍
+block中各分支采用相同的卷积
+结构，演化成分组卷积
+提出Cardnality来衡量模型复杂度，实验表名C比深度和宽度
+更有效
+</t>
+  </si>
+  <si>
+    <t>相同架构的block进行堆叠，减轻过拟合的风险，侧面说明inception过拟合</t>
+  </si>
+  <si>
+    <t>ResNext并不是模型集成的，各个branch共同训练，分开训练时称为模型集成</t>
+  </si>
+  <si>
+    <t>参数小训练速度不一定快，要看硬件对op支持情况</t>
+  </si>
+  <si>
+    <t>与inception-resnet的block是一样的结构，
+本文区别同构，不至于过适应具体任务</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>Related work</t>
+  </si>
+  <si>
+    <t>Imagenet-1k数据集上精度饱和，并不是模型能力，而是数据太少，
+即resnext方差大，resnet方差小</t>
+  </si>
+  <si>
+    <t>DenseNets</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>以前在神经元上做的操作，放到网络层上</t>
+  </si>
+  <si>
+    <t>DenseNet
+（BestPaper）</t>
   </si>
 </sst>
 </file>
@@ -443,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,7 +876,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,16 +900,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -847,89 +918,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,17 +1049,35 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1301,18 +1390,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="27.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="27.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="65.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="11.8090909090909" customWidth="1"/>
+    <col min="8" max="8" width="17.7818181818182" customWidth="1"/>
+    <col min="9" max="9" width="11.2909090909091" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1659,19 +1752,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" ht="28" spans="1:4">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" ht="28" spans="1:4">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1712,208 +1805,338 @@
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="15"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="17" t="s">
-        <v>58</v>
+      <c r="D51" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="17" t="s">
-        <v>59</v>
+      <c r="D52" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="17" t="s">
-        <v>60</v>
+      <c r="D53" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="17" t="s">
-        <v>61</v>
+      <c r="D54" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="17" t="s">
-        <v>62</v>
+      <c r="D55" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="17" t="s">
-        <v>63</v>
+      <c r="D56" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="17" t="s">
-        <v>64</v>
+      <c r="D57" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="17" t="s">
-        <v>65</v>
+      <c r="D58" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="17" t="s">
-        <v>66</v>
+      <c r="A59" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="17" t="s">
-        <v>67</v>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="17" t="s">
-        <v>68</v>
-      </c>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="11"/>
+      <c r="A69" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" ht="28" spans="1:10">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" ht="28" spans="1:10">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G73" t="s">
+        <v>85</v>
+      </c>
+      <c r="H73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="18"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="18"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18"/>
+      <c r="H76" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="28">
+    <mergeCell ref="H76:I76"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A31"/>
     <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="A51:A61"/>
-    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A48:A58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A86"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B20:B31"/>
     <mergeCell ref="B32:B39"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="B51:B61"/>
-    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B48:B58"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B77:B86"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="C11:C19"/>
     <mergeCell ref="C20:C31"/>
     <mergeCell ref="C32:C39"/>
-    <mergeCell ref="C40:C50"/>
-    <mergeCell ref="C51:C61"/>
-    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="C48:C58"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="C77:C86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
